--- a/wild_reports/2023_24/tr0710t007_wild_report.xlsx
+++ b/wild_reports/2023_24/tr0710t007_wild_report.xlsx
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
